--- a/Deudas.xlsx
+++ b/Deudas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="0" windowWidth="9015" windowHeight="8430" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="10470" yWindow="-90" windowWidth="9015" windowHeight="8430" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Brenda" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="149">
   <si>
     <t>Cheque 1557</t>
   </si>
@@ -559,6 +559,15 @@
   </si>
   <si>
     <t>Fx</t>
+  </si>
+  <si>
+    <t>mensualidad de oct</t>
+  </si>
+  <si>
+    <t>Deuda saldada</t>
+  </si>
+  <si>
+    <t>Laila abono para gasto Lilie</t>
   </si>
 </sst>
 </file>
@@ -572,7 +581,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -682,13 +691,6 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.14999847407452621"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -828,7 +830,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -929,18 +931,16 @@
     <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1712,15 +1712,15 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="F11" s="80" t="s">
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="F11" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="80"/>
+      <c r="G11" s="82"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="64"/>
@@ -1946,7 +1946,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2005,20 +2005,20 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82">
+      <c r="A5" s="78">
         <v>42576</v>
       </c>
-      <c r="B5" s="85">
+      <c r="B5" s="80">
         <v>1143</v>
       </c>
-      <c r="C5" s="85">
+      <c r="C5" s="80">
         <f>B5/G5</f>
         <v>62.871287128712872</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="85">
+      <c r="E5" s="80">
         <f>E4-B5</f>
         <v>48857</v>
       </c>
@@ -2027,20 +2027,20 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="82">
+      <c r="A6" s="78">
         <v>42576</v>
       </c>
-      <c r="B6" s="85">
+      <c r="B6" s="80">
         <v>5000</v>
       </c>
-      <c r="C6" s="85">
+      <c r="C6" s="80">
         <f>B6/G6</f>
         <v>275.027502750275</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="85">
+      <c r="E6" s="80">
         <f t="shared" ref="E6:E14" si="0">E5-B6</f>
         <v>43857</v>
       </c>
@@ -2049,54 +2049,55 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="82">
+      <c r="A7" s="78">
         <v>42612</v>
       </c>
-      <c r="B7" s="85">
+      <c r="B7" s="80">
         <v>2500</v>
       </c>
-      <c r="C7" s="85">
+      <c r="C7" s="80">
         <v>137</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="85">
+      <c r="E7" s="80">
         <f t="shared" si="0"/>
         <v>41357</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="80">
+        <v>5000</v>
+      </c>
+      <c r="C8" s="80"/>
+      <c r="D8" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="80">
+        <f>E7-B8</f>
+        <v>36357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="75">
+      <c r="B9" s="80">
         <v>5000</v>
       </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="75">
-        <f t="shared" si="0"/>
-        <v>36357</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="75">
-        <v>5000</v>
-      </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="75">
+      <c r="C9" s="80"/>
+      <c r="E9" s="80">
         <f t="shared" si="0"/>
         <v>31357</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="77">
-        <v>42705</v>
+      <c r="A10" s="77" t="s">
+        <v>27</v>
       </c>
       <c r="B10" s="75">
         <v>5000</v>
@@ -2110,7 +2111,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="76" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B11" s="75">
         <v>5000</v>
@@ -2124,7 +2125,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B12" s="75">
         <v>5000</v>
@@ -2138,7 +2139,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="76" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B13" s="75">
         <v>5000</v>
@@ -2152,7 +2153,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="76" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B14" s="75">
         <v>5000</v>
@@ -2165,6 +2166,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="76" t="s">
+        <v>47</v>
+      </c>
       <c r="E15" s="74"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3835,7 +3839,7 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4623,7 +4627,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="82">
+      <c r="A39" s="78">
         <v>42551</v>
       </c>
       <c r="B39" s="23">
@@ -4648,7 +4652,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="82">
+      <c r="A40" s="78">
         <v>42580</v>
       </c>
       <c r="B40" s="23">
@@ -4664,7 +4668,7 @@
         <f>E39-D40</f>
         <v>280</v>
       </c>
-      <c r="F40" s="83" t="s">
+      <c r="F40" s="79" t="s">
         <v>141</v>
       </c>
       <c r="K40" s="23">
@@ -4672,29 +4676,40 @@
       </c>
     </row>
     <row r="41" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="84">
-        <v>42612</v>
-      </c>
-      <c r="B41" s="78">
+      <c r="A41" s="78">
+        <v>42613</v>
+      </c>
+      <c r="B41" s="23">
         <v>1400</v>
       </c>
-      <c r="C41" s="79">
+      <c r="C41" s="72">
         <v>1400</v>
       </c>
-      <c r="D41" s="79">
+      <c r="D41" s="72">
         <v>300</v>
       </c>
-      <c r="E41" s="79">
+      <c r="E41" s="72">
         <f>E40-D41</f>
         <v>-20</v>
       </c>
       <c r="F41" s="72"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>42646</v>
+      </c>
+      <c r="B42" s="23">
+        <v>1400</v>
+      </c>
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
+      <c r="F42" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="J42" s="81" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C43" s="26"/>

--- a/Deudas.xlsx
+++ b/Deudas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10470" yWindow="-90" windowWidth="9015" windowHeight="8430" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="10470" yWindow="-90" windowWidth="9015" windowHeight="8430" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Brenda" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="150">
   <si>
     <t>Cheque 1557</t>
   </si>
@@ -568,6 +568,9 @@
   </si>
   <si>
     <t>Laila abono para gasto Lilie</t>
+  </si>
+  <si>
+    <t>Lili se salio de casa de Laila.</t>
   </si>
 </sst>
 </file>
@@ -930,7 +933,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -941,6 +943,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1712,15 +1715,15 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="F11" s="82" t="s">
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="F11" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="82"/>
+      <c r="G11" s="81"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="64"/>
@@ -1945,8 +1948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2005,20 +2008,20 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78">
+      <c r="A5" s="77">
         <v>42576</v>
       </c>
-      <c r="B5" s="80">
+      <c r="B5" s="79">
         <v>1143</v>
       </c>
-      <c r="C5" s="80">
+      <c r="C5" s="79">
         <f>B5/G5</f>
         <v>62.871287128712872</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="80">
+      <c r="E5" s="79">
         <f>E4-B5</f>
         <v>48857</v>
       </c>
@@ -2027,20 +2030,20 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78">
+      <c r="A6" s="77">
         <v>42576</v>
       </c>
-      <c r="B6" s="80">
+      <c r="B6" s="79">
         <v>5000</v>
       </c>
-      <c r="C6" s="80">
+      <c r="C6" s="79">
         <f>B6/G6</f>
         <v>275.027502750275</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="80">
+      <c r="E6" s="79">
         <f t="shared" ref="E6:E14" si="0">E5-B6</f>
         <v>43857</v>
       </c>
@@ -2049,19 +2052,19 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78">
+      <c r="A7" s="77">
         <v>42612</v>
       </c>
-      <c r="B7" s="80">
+      <c r="B7" s="79">
         <v>2500</v>
       </c>
-      <c r="C7" s="80">
+      <c r="C7" s="79">
         <v>137</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="80">
+      <c r="E7" s="79">
         <f t="shared" si="0"/>
         <v>41357</v>
       </c>
@@ -2070,14 +2073,14 @@
       <c r="A8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="80">
+      <c r="B8" s="79">
         <v>5000</v>
       </c>
-      <c r="C8" s="80"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="E8" s="80">
+      <c r="E8" s="79">
         <f>E7-B8</f>
         <v>36357</v>
       </c>
@@ -2086,27 +2089,30 @@
       <c r="A9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="80">
+      <c r="B9" s="79">
         <v>5000</v>
       </c>
-      <c r="C9" s="80"/>
-      <c r="E9" s="80">
+      <c r="C9" s="79"/>
+      <c r="E9" s="79">
         <f t="shared" si="0"/>
         <v>31357</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="75">
+      <c r="B10" s="79">
         <v>5000</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="75">
+      <c r="C10" s="79"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="79">
         <f t="shared" si="0"/>
         <v>26357</v>
+      </c>
+      <c r="G10" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3838,8 +3844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4627,7 +4633,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="78">
+      <c r="A39" s="77">
         <v>42551</v>
       </c>
       <c r="B39" s="23">
@@ -4652,7 +4658,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="78">
+      <c r="A40" s="77">
         <v>42580</v>
       </c>
       <c r="B40" s="23">
@@ -4668,7 +4674,7 @@
         <f>E39-D40</f>
         <v>280</v>
       </c>
-      <c r="F40" s="79" t="s">
+      <c r="F40" s="78" t="s">
         <v>141</v>
       </c>
       <c r="K40" s="23">
@@ -4676,7 +4682,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="78">
+      <c r="A41" s="77">
         <v>42613</v>
       </c>
       <c r="B41" s="23">
@@ -4707,17 +4713,29 @@
       <c r="F42" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="J42" s="81" t="s">
+      <c r="J42" s="80" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>42678</v>
+      </c>
+      <c r="B43" s="23">
+        <v>1400</v>
+      </c>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>42709</v>
+      </c>
+      <c r="B44" s="23">
+        <v>1400</v>
+      </c>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>

--- a/Deudas.xlsx
+++ b/Deudas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10470" yWindow="-90" windowWidth="9015" windowHeight="8430" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="7575" yWindow="-90" windowWidth="11910" windowHeight="8430" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Brenda" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="151">
   <si>
     <t>Cheque 1557</t>
   </si>
@@ -571,6 +571,9 @@
   </si>
   <si>
     <t>Lili se salio de casa de Laila.</t>
+  </si>
+  <si>
+    <t>Cash en Mexico</t>
   </si>
 </sst>
 </file>
@@ -937,13 +940,13 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1715,15 +1718,15 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="F11" s="81" t="s">
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="F11" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="81"/>
+      <c r="G11" s="82"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="64"/>
@@ -2099,7 +2102,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="81" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="79">
@@ -3842,10 +3845,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4742,10 +4745,26 @@
       <c r="F44" s="26"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>43099</v>
+      </c>
+      <c r="B45" s="23">
+        <v>1400</v>
+      </c>
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
+      <c r="F45" s="26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>42766</v>
+      </c>
+      <c r="B46" s="23">
+        <v>1500</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Deudas.xlsx
+++ b/Deudas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7575" yWindow="-90" windowWidth="11910" windowHeight="8430" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="5085" yWindow="-165" windowWidth="8880" windowHeight="8430" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Brenda" sheetId="1" r:id="rId1"/>
@@ -3845,16 +3845,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -4766,6 +4766,22 @@
         <v>1500</v>
       </c>
     </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>42793</v>
+      </c>
+      <c r="B47" s="23">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>42824</v>
+      </c>
+      <c r="B48" s="23">
+        <v>1400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/Deudas.xlsx
+++ b/Deudas.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizk\Documents\_Personal\Recon\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5085" yWindow="-165" windowWidth="8880" windowHeight="8430" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16368" windowHeight="5604" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Brenda" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
   <externalReferences>
     <externalReference r:id="rId12"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -32,7 +37,7 @@
     <author>LKL</author>
   </authors>
   <commentList>
-    <comment ref="C17" authorId="0">
+    <comment ref="C17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +71,7 @@
     <author>Liz Kleinfingher</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="152">
   <si>
     <t>Cheque 1557</t>
   </si>
@@ -574,6 +579,9 @@
   </si>
   <si>
     <t>Cash en Mexico</t>
+  </si>
+  <si>
+    <t>Mensualidad Mayo</t>
   </si>
 </sst>
 </file>
@@ -959,6 +967,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1143,7 +1154,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1178,7 +1189,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1393,20 +1404,20 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="21"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>40812</v>
       </c>
@@ -1417,7 +1428,7 @@
         <v>5369.21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
         <v>40819</v>
       </c>
@@ -1432,7 +1443,7 @@
         <v>5199.9399999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <v>40849</v>
       </c>
@@ -1447,7 +1458,7 @@
         <v>5089.9399999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>40921</v>
       </c>
@@ -1462,7 +1473,7 @@
         <v>4869.9399999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>40946</v>
       </c>
@@ -1477,7 +1488,7 @@
         <v>4759.9399999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>40976</v>
       </c>
@@ -1492,7 +1503,7 @@
         <v>4649.9399999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
         <v>41004</v>
       </c>
@@ -1507,7 +1518,7 @@
         <v>4539.9399999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="29">
         <v>41061</v>
       </c>
@@ -1522,7 +1533,7 @@
         <v>4429.9399999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="29">
         <v>41064</v>
       </c>
@@ -1537,7 +1548,7 @@
         <v>4269.9399999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="29">
         <v>41065</v>
       </c>
@@ -1552,7 +1563,7 @@
         <v>4159.9399999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="29">
         <v>41107</v>
       </c>
@@ -1567,7 +1578,7 @@
         <v>4069.9399999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="29">
         <v>41130</v>
       </c>
@@ -1582,7 +1593,7 @@
         <v>3959.9399999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="29">
         <v>41159</v>
       </c>
@@ -1597,7 +1608,7 @@
         <v>3849.9399999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>41172</v>
       </c>
@@ -1612,7 +1623,7 @@
         <v>2969.9999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>41180</v>
       </c>
@@ -1627,7 +1638,7 @@
         <v>1469.9999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29">
         <v>41194</v>
       </c>
@@ -1656,25 +1667,25 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="63" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="67" t="s">
         <v>35</v>
       </c>
@@ -1686,7 +1697,7 @@
       </c>
       <c r="E5" s="67"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>4000</v>
       </c>
@@ -1694,7 +1705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>3500</v>
       </c>
@@ -1702,22 +1713,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>6000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>9000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>2500</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="83" t="s">
         <v>38</v>
       </c>
@@ -1728,7 +1739,7 @@
       </c>
       <c r="G11" s="82"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="64"/>
       <c r="B12" s="20" t="s">
         <v>35</v>
@@ -1747,7 +1758,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="65">
         <v>42036</v>
       </c>
@@ -1772,7 +1783,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="64" t="s">
         <v>8</v>
       </c>
@@ -1799,7 +1810,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="64" t="s">
         <v>13</v>
       </c>
@@ -1818,7 +1829,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="64" t="s">
         <v>13</v>
       </c>
@@ -1837,7 +1848,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="64" t="s">
         <v>15</v>
       </c>
@@ -1856,7 +1867,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="64" t="s">
         <v>26</v>
       </c>
@@ -1875,7 +1886,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="64" t="s">
         <v>27</v>
       </c>
@@ -1894,7 +1905,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="64"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -1902,7 +1913,7 @@
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="64"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
@@ -1910,31 +1921,31 @@
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="64"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="64"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="64"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="64"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="64"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="64"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="64"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="64"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="64"/>
     </row>
   </sheetData>
@@ -1955,14 +1966,14 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" style="74" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="74" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="74" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="74" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="74" t="s">
         <v>49</v>
       </c>
@@ -1976,7 +1987,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>42521</v>
       </c>
@@ -1990,7 +2001,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>42522</v>
       </c>
@@ -2004,13 +2015,13 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E4" s="74">
         <f>SUM(B2:B3)</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="77">
         <v>42576</v>
       </c>
@@ -2032,7 +2043,7 @@
         <v>18.18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="77">
         <v>42576</v>
       </c>
@@ -2054,7 +2065,7 @@
         <v>18.18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="77">
         <v>42612</v>
       </c>
@@ -2072,7 +2083,7 @@
         <v>41357</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>15</v>
       </c>
@@ -2088,7 +2099,7 @@
         <v>36357</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>26</v>
       </c>
@@ -2101,7 +2112,7 @@
         <v>31357</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="81" t="s">
         <v>27</v>
       </c>
@@ -2118,7 +2129,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="76" t="s">
         <v>28</v>
       </c>
@@ -2132,7 +2143,7 @@
         <v>21357</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="76" t="s">
         <v>43</v>
       </c>
@@ -2146,7 +2157,7 @@
         <v>16357</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="76" t="s">
         <v>7</v>
       </c>
@@ -2160,7 +2171,7 @@
         <v>11357</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="76" t="s">
         <v>8</v>
       </c>
@@ -2174,13 +2185,13 @@
         <v>6357</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="76" t="s">
         <v>47</v>
       </c>
       <c r="E15" s="74"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E16" s="74"/>
     </row>
   </sheetData>
@@ -2196,145 +2207,145 @@
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="257" max="257" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="769" max="769" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="1025" max="1025" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="1281" max="1281" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="1537" max="1537" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="1793" max="1793" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2049" max="2049" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2305" max="2305" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2561" max="2561" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2817" max="2817" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3073" max="3073" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3329" max="3329" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3585" max="3585" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3841" max="3841" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4097" max="4097" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4353" max="4353" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4609" max="4609" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4865" max="4865" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5121" max="5121" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5377" max="5377" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5633" max="5633" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5889" max="5889" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6145" max="6145" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6401" max="6401" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6657" max="6657" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6913" max="6913" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7169" max="7169" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7425" max="7425" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7681" max="7681" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7937" max="7937" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8193" max="8193" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8449" max="8449" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8705" max="8705" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8961" max="8961" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9217" max="9217" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9473" max="9473" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9729" max="9729" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9985" max="9985" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10241" max="10241" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10497" max="10497" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10753" max="10753" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11009" max="11009" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11265" max="11265" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11521" max="11521" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11777" max="11777" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12033" max="12033" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12289" max="12289" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12545" max="12545" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12801" max="12801" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13057" max="13057" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13313" max="13313" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13569" max="13569" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13825" max="13825" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="14081" max="14081" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="14337" max="14337" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="14593" max="14593" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="14849" max="14849" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="15105" max="15105" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="15361" max="15361" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="15617" max="15617" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="15873" max="15873" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="16129" max="16129" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="257" max="257" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="769" max="769" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1025" max="1025" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1281" max="1281" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1537" max="1537" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1793" max="1793" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2049" max="2049" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2305" max="2305" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2561" max="2561" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2817" max="2817" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3073" max="3073" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3329" max="3329" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3585" max="3585" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3841" max="3841" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4097" max="4097" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4353" max="4353" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4609" max="4609" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4865" max="4865" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5121" max="5121" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5377" max="5377" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5633" max="5633" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5889" max="5889" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6145" max="6145" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6401" max="6401" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6657" max="6657" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6913" max="6913" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7169" max="7169" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7425" max="7425" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7681" max="7681" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7937" max="7937" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8193" max="8193" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8449" max="8449" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8705" max="8705" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8961" max="8961" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9217" max="9217" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9473" max="9473" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9729" max="9729" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9985" max="9985" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10241" max="10241" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10497" max="10497" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10753" max="10753" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11009" max="11009" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11265" max="11265" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11521" max="11521" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11777" max="11777" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12033" max="12033" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12289" max="12289" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12545" max="12545" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12801" max="12801" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13057" max="13057" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13313" max="13313" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13569" max="13569" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13825" max="13825" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="14081" max="14081" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="14337" max="14337" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="14593" max="14593" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="14849" max="14849" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="15105" max="15105" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="15361" max="15361" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="15617" max="15617" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="15873" max="15873" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="16129" max="16129" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" ht="24.6" x14ac:dyDescent="0.4">
       <c r="B1" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
         <v>20</v>
       </c>
@@ -2342,7 +2353,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
@@ -2351,7 +2362,7 @@
         <v>34.020000000000003</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>22</v>
       </c>
@@ -2360,7 +2371,7 @@
         <v>71.27000000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>23</v>
       </c>
@@ -2369,7 +2380,7 @@
         <v>58.87</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>24</v>
       </c>
@@ -2378,7 +2389,7 @@
         <v>49.34</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
@@ -2387,7 +2398,7 @@
         <v>33.83</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
         <v>12</v>
       </c>
@@ -2402,7 +2413,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
@@ -2417,7 +2428,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
@@ -2426,7 +2437,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
@@ -2435,7 +2446,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
@@ -2444,7 +2455,7 @@
         <v>32.989999999999995</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
@@ -2453,7 +2464,7 @@
         <v>57.13</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>21</v>
       </c>
@@ -2462,7 +2473,7 @@
         <v>417.49000000000007</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>40586</v>
       </c>
@@ -2473,7 +2484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>3</v>
       </c>
@@ -2492,7 +2503,7 @@
         <v>544.32000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>6</v>
@@ -2501,7 +2512,7 @@
         <v>63.55</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>7</v>
@@ -2511,7 +2522,7 @@
       </c>
       <c r="E19" s="12"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>8</v>
@@ -2521,7 +2532,7 @@
       </c>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="10" t="s">
         <v>9</v>
@@ -2530,7 +2541,7 @@
         <v>31.09</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>10</v>
@@ -2540,7 +2551,7 @@
       </c>
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>11</v>
@@ -2549,7 +2560,7 @@
         <v>60.75</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>12</v>
@@ -2558,7 +2569,7 @@
         <v>97.63</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>13</v>
@@ -2571,7 +2582,7 @@
         <v>400.83000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>14</v>
       </c>
@@ -2580,7 +2591,7 @@
         <v>-44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
         <v>15</v>
@@ -2589,7 +2600,7 @@
         <v>87.49</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>16</v>
       </c>
@@ -2598,7 +2609,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>17</v>
       </c>
@@ -2607,7 +2618,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>18</v>
       </c>
@@ -2617,7 +2628,7 @@
         <v>544.32000000000005</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>29</v>
       </c>
@@ -2626,7 +2637,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>30</v>
       </c>
@@ -2636,7 +2647,7 @@
         <v>-55.67999999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
         <v>2011</v>
       </c>
@@ -2651,7 +2662,7 @@
         <v>109.10000000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
         <v>2011</v>
       </c>
@@ -2666,7 +2677,7 @@
         <v>154.78000000000006</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
         <v>2011</v>
       </c>
@@ -2681,7 +2692,7 @@
         <v>154.78000000000006</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
         <v>2012</v>
       </c>
@@ -2696,7 +2707,7 @@
         <v>163.05000000000007</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
         <v>2012</v>
       </c>
@@ -2711,7 +2722,7 @@
         <v>174.76000000000008</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <v>2012</v>
       </c>
@@ -2726,7 +2737,7 @@
         <v>174.76000000000008</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
         <v>2012</v>
       </c>
@@ -2741,7 +2752,7 @@
         <v>201.69000000000008</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <v>2012</v>
       </c>
@@ -2759,7 +2770,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
         <v>2012</v>
       </c>
@@ -2774,7 +2785,7 @@
         <v>231.11000000000007</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <v>2012</v>
       </c>
@@ -2789,7 +2800,7 @@
         <v>235.14000000000007</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
         <v>2012</v>
       </c>
@@ -2804,7 +2815,7 @@
         <v>243.14000000000007</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
         <v>2012</v>
       </c>
@@ -2822,7 +2833,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
         <v>2013</v>
       </c>
@@ -2837,7 +2848,7 @@
         <v>262.61000000000007</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
         <v>2013</v>
       </c>
@@ -2852,7 +2863,7 @@
         <v>262.61000000000007</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
         <v>2013</v>
       </c>
@@ -2867,7 +2878,7 @@
         <v>262.61000000000007</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
         <v>2013</v>
       </c>
@@ -2882,7 +2893,7 @@
         <v>269.2700000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="13">
         <v>2013</v>
       </c>
@@ -2897,7 +2908,7 @@
         <v>274.78000000000009</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="13">
         <v>2013</v>
       </c>
@@ -2912,7 +2923,7 @@
         <v>274.78000000000009</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="13">
         <v>2013</v>
       </c>
@@ -2928,7 +2939,7 @@
         <v>250.97047619047629</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="13">
         <v>2013</v>
       </c>
@@ -2943,7 +2954,7 @@
         <v>150.97047619047629</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="13">
         <v>2013</v>
       </c>
@@ -2958,7 +2969,7 @@
         <v>162.97047619047629</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="13">
         <v>2013</v>
       </c>
@@ -2973,7 +2984,7 @@
         <v>169.95047619047628</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="13">
         <v>2014</v>
       </c>
@@ -3003,13 +3014,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="20" t="s">
         <v>35</v>
       </c>
@@ -3018,7 +3029,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22">
         <v>40833</v>
       </c>
@@ -3029,7 +3040,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="25">
         <v>40878</v>
       </c>
@@ -3041,7 +3052,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="25">
         <v>40909</v>
       </c>
@@ -3067,13 +3078,13 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>38</v>
       </c>
@@ -3081,7 +3092,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="25">
         <v>40817</v>
       </c>
@@ -3099,16 +3110,16 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C1" s="20" t="s">
         <v>34</v>
       </c>
@@ -3119,7 +3130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="22">
         <v>40683</v>
       </c>
@@ -3134,7 +3145,7 @@
       </c>
       <c r="E2" s="26"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="22">
         <v>40686</v>
       </c>
@@ -3150,7 +3161,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="22">
         <v>40838</v>
       </c>
@@ -3166,7 +3177,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="22">
         <v>40901</v>
       </c>
@@ -3182,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="22">
         <v>40878</v>
       </c>
@@ -3198,7 +3209,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="22">
         <v>40901</v>
       </c>
@@ -3214,21 +3225,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="22"/>
       <c r="E9" s="26"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="22"/>
       <c r="E10" s="26"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="22"/>
       <c r="B11" s="23" t="s">
         <v>54</v>
@@ -3244,7 +3255,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="22"/>
       <c r="B12" s="23" t="s">
         <v>54</v>
@@ -3253,7 +3264,7 @@
         <v>-257.13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="23" t="s">
         <v>54</v>
       </c>
@@ -3261,7 +3272,7 @@
         <v>66.75</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="23" t="s">
         <v>54</v>
       </c>
@@ -3269,7 +3280,7 @@
         <v>290.86</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="23" t="s">
         <v>54</v>
       </c>
@@ -3277,7 +3288,7 @@
         <v>70.48</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="23" t="s">
         <v>54</v>
       </c>
@@ -3285,7 +3296,7 @@
         <v>-66.05</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" s="23" t="s">
         <v>54</v>
       </c>
@@ -3293,7 +3304,7 @@
         <v>-220.68</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" s="23" t="s">
         <v>54</v>
       </c>
@@ -3301,7 +3312,7 @@
         <v>-275.02999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" s="23" t="s">
         <v>54</v>
       </c>
@@ -3309,7 +3320,7 @@
         <v>11.54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" s="23" t="s">
         <v>54</v>
       </c>
@@ -3317,7 +3328,7 @@
         <v>71.77</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C21" s="30">
         <f>(SUM(C11:C20))*-1</f>
         <v>788.91</v>
@@ -3327,7 +3338,7 @@
         <v>59.31654135338345</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" s="23" t="s">
         <v>72</v>
       </c>
@@ -3339,7 +3350,7 @@
         <v>30.075187969924812</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>41172</v>
       </c>
@@ -3357,7 +3368,7 @@
         <v>743.58974358974353</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>103</v>
       </c>
@@ -3376,12 +3387,12 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -3392,7 +3403,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="29">
         <v>40968</v>
       </c>
@@ -3409,7 +3420,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="29">
         <v>41001</v>
       </c>
@@ -3420,7 +3431,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <v>41036</v>
       </c>
@@ -3431,7 +3442,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="19">
         <v>41060</v>
       </c>
@@ -3449,7 +3460,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E6" s="25">
         <v>41091</v>
       </c>
@@ -3457,13 +3468,13 @@
         <v>600</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G7">
         <f>SUM(G2:G6)</f>
         <v>1200</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -3482,16 +3493,16 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>52</v>
       </c>
@@ -3499,7 +3510,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="20" t="s">
         <v>35</v>
       </c>
@@ -3510,7 +3521,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -3531,7 +3542,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -3550,7 +3561,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>54</v>
       </c>
@@ -3569,7 +3580,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>54</v>
       </c>
@@ -3586,7 +3597,7 @@
       </c>
       <c r="H6" s="26"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>54</v>
       </c>
@@ -3600,7 +3611,7 @@
       <c r="D7" s="31"/>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>56</v>
       </c>
@@ -3614,7 +3625,7 @@
       <c r="D8" s="31"/>
       <c r="H8" s="26"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>58</v>
       </c>
@@ -3628,7 +3639,7 @@
       <c r="D9" s="31"/>
       <c r="H9" s="26"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
         <v>59</v>
       </c>
@@ -3642,7 +3653,7 @@
       <c r="D10" s="31"/>
       <c r="H10" s="26"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>65</v>
       </c>
@@ -3657,7 +3668,7 @@
       <c r="D11" s="31"/>
       <c r="H11" s="26"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
         <v>64</v>
       </c>
@@ -3675,7 +3686,7 @@
       </c>
       <c r="H12" s="26"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>91</v>
       </c>
@@ -3691,7 +3702,7 @@
       </c>
       <c r="H13" s="26"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>93</v>
       </c>
@@ -3707,12 +3718,12 @@
       </c>
       <c r="H14" s="26"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C15" s="3"/>
       <c r="D15" s="31"/>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
         <v>4</v>
       </c>
@@ -3727,22 +3738,22 @@
       <c r="D16" s="31"/>
       <c r="H16" s="26"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D17" s="31"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>102</v>
       </c>
       <c r="D18" s="31"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D19" s="31"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D20" s="31"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D21" s="31"/>
     </row>
   </sheetData>
@@ -3759,13 +3770,13 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>35</v>
       </c>
@@ -3773,7 +3784,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -3784,7 +3795,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="25">
         <v>41091</v>
       </c>
@@ -3795,7 +3806,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>41150</v>
       </c>
@@ -3806,7 +3817,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -3817,7 +3828,7 @@
         <v>-2000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -3828,7 +3839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7">
         <f>-SUM(C2:C6)</f>
         <v>0</v>
@@ -3845,26 +3856,27 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.85546875" customWidth="1"/>
-    <col min="10" max="10" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.88671875" customWidth="1"/>
+    <col min="10" max="10" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C1" s="61" t="s">
         <v>105</v>
       </c>
@@ -3885,7 +3897,7 @@
       </c>
       <c r="I1" s="20"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="25">
         <v>41244</v>
       </c>
@@ -3899,7 +3911,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2013</v>
       </c>
@@ -3939,7 +3951,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2013</v>
       </c>
@@ -3987,7 +3999,7 @@
         <v>629.48666666666668</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -4012,7 +4024,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2013</v>
       </c>
@@ -4031,7 +4043,7 @@
       <c r="N6" s="53"/>
       <c r="O6" s="54"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -4057,7 +4069,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2013</v>
       </c>
@@ -4086,7 +4098,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -4108,7 +4120,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -4122,7 +4134,7 @@
       <c r="N10" s="56"/>
       <c r="O10" s="57"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -4136,7 +4148,7 @@
       <c r="N11" s="56"/>
       <c r="O11" s="57"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>26</v>
       </c>
@@ -4150,7 +4162,7 @@
       <c r="N12" s="56"/>
       <c r="O12" s="57"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>27</v>
       </c>
@@ -4171,7 +4183,7 @@
       <c r="N13" s="56"/>
       <c r="O13" s="57"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>28</v>
       </c>
@@ -4192,7 +4204,7 @@
       <c r="N14" s="56"/>
       <c r="O14" s="57"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2014</v>
       </c>
@@ -4215,7 +4227,7 @@
       <c r="N15" s="59"/>
       <c r="O15" s="60"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>7</v>
       </c>
@@ -4224,7 +4236,7 @@
       </c>
       <c r="F16" s="48"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>8</v>
       </c>
@@ -4236,7 +4248,7 @@
       </c>
       <c r="F17" s="48"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>47</v>
       </c>
@@ -4245,7 +4257,7 @@
       </c>
       <c r="F18" s="48"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
@@ -4256,7 +4268,7 @@
       </c>
       <c r="F19" s="48"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -4272,7 +4284,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
         <v>119</v>
       </c>
@@ -4287,7 +4299,7 @@
       </c>
       <c r="F21" s="26"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>117</v>
       </c>
@@ -4302,7 +4314,7 @@
       </c>
       <c r="F22" s="26"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>118</v>
       </c>
@@ -4317,7 +4329,7 @@
       </c>
       <c r="F23" s="26"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>120</v>
       </c>
@@ -4331,7 +4343,7 @@
       </c>
       <c r="F24" s="26"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>121</v>
       </c>
@@ -4347,7 +4359,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C26" s="69" t="s">
         <v>133</v>
       </c>
@@ -4359,7 +4371,7 @@
       </c>
       <c r="F26" s="26"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>42201</v>
       </c>
@@ -4377,7 +4389,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -4401,7 +4413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -4427,7 +4439,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -4453,7 +4465,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -4474,7 +4486,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -4495,7 +4507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -4516,7 +4528,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -4537,7 +4549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -4563,7 +4575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23" t="s">
         <v>23</v>
       </c>
@@ -4587,7 +4599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23" t="s">
         <v>24</v>
       </c>
@@ -4611,7 +4623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="30" t="s">
         <v>108</v>
       </c>
@@ -4635,7 +4647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="77">
         <v>42551</v>
       </c>
@@ -4660,7 +4672,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="77">
         <v>42580</v>
       </c>
@@ -4684,7 +4696,7 @@
         <v>18.440000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="77">
         <v>42613</v>
       </c>
@@ -4703,7 +4715,7 @@
       </c>
       <c r="F41" s="72"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>42646</v>
       </c>
@@ -4720,7 +4732,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42678</v>
       </c>
@@ -4732,7 +4744,7 @@
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>42709</v>
       </c>
@@ -4744,7 +4756,7 @@
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>43099</v>
       </c>
@@ -4758,7 +4770,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>42766</v>
       </c>
@@ -4766,7 +4778,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>42793</v>
       </c>
@@ -4774,12 +4786,23 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>42824</v>
       </c>
       <c r="B48" s="23">
         <v>1400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="19">
+        <v>42856</v>
+      </c>
+      <c r="B49">
+        <v>1500</v>
+      </c>
+      <c r="F49" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4787,4 +4810,19 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<sisl xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="82ad3a63-90ad-4a46-a3cb-757f4658e205" origin="userSelected">
+  <element uid="768aceb2-b366-4b48-827b-e820edc548bd" value=""/>
+</sisl>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30104772-CDBF-4DC3-BB36-77D965D6191E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Deudas.xlsx
+++ b/Deudas.xlsx
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="157">
   <si>
     <t>Cheque 1557</t>
   </si>
@@ -582,6 +582,21 @@
   </si>
   <si>
     <t>Mensualidad Mayo</t>
+  </si>
+  <si>
+    <t>Mensualidad Junio</t>
+  </si>
+  <si>
+    <t>Ayuda por enfermedad depositada a cuenta de Lili</t>
+  </si>
+  <si>
+    <t>Ayuda no me aucerdo para que</t>
+  </si>
+  <si>
+    <t>Mensualidad Julio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayuda por enfermedad  </t>
   </si>
 </sst>
 </file>
@@ -3856,11 +3871,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4805,6 +4820,61 @@
         <v>151</v>
       </c>
     </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="19">
+        <v>42886</v>
+      </c>
+      <c r="B50" s="23">
+        <v>1500</v>
+      </c>
+      <c r="F50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>42892</v>
+      </c>
+      <c r="B51" s="23">
+        <v>1000</v>
+      </c>
+      <c r="F51" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>42907</v>
+      </c>
+      <c r="B52" s="23">
+        <v>500</v>
+      </c>
+      <c r="F52" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>42916</v>
+      </c>
+      <c r="B53" s="23">
+        <v>1500</v>
+      </c>
+      <c r="F53" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>42923</v>
+      </c>
+      <c r="B54" s="23">
+        <v>1000</v>
+      </c>
+      <c r="F54" t="s">
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -4819,7 +4889,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30104772-CDBF-4DC3-BB36-77D965D6191E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7AAF79D-D8FE-40F8-AD9F-AC1CCC83B211}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>

--- a/Deudas.xlsx
+++ b/Deudas.xlsx
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="158">
   <si>
     <t>Cheque 1557</t>
   </si>
@@ -597,6 +597,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ayuda por enfermedad  </t>
+  </si>
+  <si>
+    <t>Mensualidad de Agosto</t>
   </si>
 </sst>
 </file>
@@ -3871,11 +3874,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4875,6 +4878,20 @@
         <v>156</v>
       </c>
     </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="19">
+        <v>42947</v>
+      </c>
+      <c r="B55" s="23">
+        <v>1500</v>
+      </c>
+      <c r="C55">
+        <v>86</v>
+      </c>
+      <c r="F55" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -4889,7 +4906,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7AAF79D-D8FE-40F8-AD9F-AC1CCC83B211}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38A78142-870A-4596-B986-F6D897A4A113}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
